--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2937.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2937.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9418219061151558</v>
+        <v>1.494545936584473</v>
       </c>
       <c r="B1">
-        <v>1.756301549870211</v>
+        <v>1.567805171012878</v>
       </c>
       <c r="C1">
-        <v>6.902543592096446</v>
+        <v>3.717894315719604</v>
       </c>
       <c r="D1">
-        <v>3.296408325692616</v>
+        <v>2.32136344909668</v>
       </c>
       <c r="E1">
-        <v>1.503637631368007</v>
+        <v>0.8399289846420288</v>
       </c>
     </row>
   </sheetData>
